--- a/temp_text/교류협력플래폼_정책보고서수집_200609.xlsx
+++ b/temp_text/교류협력플래폼_정책보고서수집_200609.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\09.PROJECT\2020\COLA\00.사업관리\주간업무보고\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repo\nodejs_test\temp_text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D4D5D7-A405-430A-A835-D245D66C2EB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF43721-A474-4B5B-99AB-C75F6F74D42D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{B9A3CF7B-4112-4F33-ADE5-FE5AB5F3CAA7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>수집대상</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,10 +155,6 @@
   </si>
   <si>
     <t>현안분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총건수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -250,7 +246,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -343,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -362,32 +358,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C16691D-DDA2-4057-8F07-9C193BB054B7}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -736,257 +729,260 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="12" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="12" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="12" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="10"/>
+      <c r="B9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="12" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="12" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="7" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="12" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="12" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="14" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="7" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="12" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="12" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="12" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="12" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A27:C27"/>
+  <mergeCells count="27">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B26:C26"/>
@@ -1002,18 +998,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
